--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +519,371 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>17.4744022271255</v>
+        <v>7.134618</v>
       </c>
       <c r="H2">
-        <v>17.4744022271255</v>
+        <v>21.403854</v>
       </c>
       <c r="I2">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="J2">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08294131002118</v>
+        <v>2.095195666666667</v>
       </c>
       <c r="N2">
-        <v>2.08294131002118</v>
+        <v>6.285587</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8546922300706357</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8546922300706358</v>
       </c>
       <c r="Q2">
-        <v>36.39815426680582</v>
+        <v>14.948420716922</v>
       </c>
       <c r="R2">
-        <v>36.39815426680582</v>
+        <v>134.535786452298</v>
       </c>
       <c r="S2">
-        <v>0.3260488769115795</v>
+        <v>0.08250497265634583</v>
       </c>
       <c r="T2">
-        <v>0.3260488769115795</v>
+        <v>0.08250497265634585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>7.134618</v>
+      </c>
+      <c r="H3">
+        <v>21.403854</v>
+      </c>
+      <c r="I3">
+        <v>0.0965317920926077</v>
+      </c>
+      <c r="J3">
+        <v>0.0965317920926077</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.356208</v>
+      </c>
+      <c r="N3">
+        <v>1.068624</v>
+      </c>
+      <c r="O3">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="P3">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="Q3">
+        <v>2.541408008544</v>
+      </c>
+      <c r="R3">
+        <v>22.872672076896</v>
+      </c>
+      <c r="S3">
+        <v>0.01402681943626187</v>
+      </c>
+      <c r="T3">
+        <v>0.01402681943626187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>17.50798033333334</v>
+      </c>
+      <c r="H4">
+        <v>52.52394100000001</v>
+      </c>
+      <c r="I4">
+        <v>0.2368839813846793</v>
+      </c>
+      <c r="J4">
+        <v>0.2368839813846794</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N4">
+        <v>6.285587</v>
+      </c>
+      <c r="O4">
+        <v>0.8546922300706357</v>
+      </c>
+      <c r="P4">
+        <v>0.8546922300706358</v>
+      </c>
+      <c r="Q4">
+        <v>36.68264452648523</v>
+      </c>
+      <c r="R4">
+        <v>330.143800738367</v>
+      </c>
+      <c r="S4">
+        <v>0.2024628983176825</v>
+      </c>
+      <c r="T4">
+        <v>0.2024628983176826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>17.50798033333334</v>
+      </c>
+      <c r="H5">
+        <v>52.52394100000001</v>
+      </c>
+      <c r="I5">
+        <v>0.2368839813846793</v>
+      </c>
+      <c r="J5">
+        <v>0.2368839813846794</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.356208</v>
+      </c>
+      <c r="N5">
+        <v>1.068624</v>
+      </c>
+      <c r="O5">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="P5">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="Q5">
+        <v>6.236482658576001</v>
+      </c>
+      <c r="R5">
+        <v>56.12834392718401</v>
+      </c>
+      <c r="S5">
+        <v>0.0344210830669968</v>
+      </c>
+      <c r="T5">
+        <v>0.0344210830669968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G6">
+        <v>49.26691733333334</v>
+      </c>
+      <c r="H6">
+        <v>147.800752</v>
+      </c>
+      <c r="I6">
+        <v>0.6665842265227129</v>
+      </c>
+      <c r="J6">
+        <v>0.666584226522713</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>36.1200232241983</v>
-      </c>
-      <c r="H3">
-        <v>36.1200232241983</v>
-      </c>
-      <c r="I3">
-        <v>0.6739511230884204</v>
-      </c>
-      <c r="J3">
-        <v>0.6739511230884204</v>
-      </c>
-      <c r="K3">
+      <c r="M6">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N6">
+        <v>6.285587</v>
+      </c>
+      <c r="O6">
+        <v>0.8546922300706357</v>
+      </c>
+      <c r="P6">
+        <v>0.8546922300706358</v>
+      </c>
+      <c r="Q6">
+        <v>103.2238317068249</v>
+      </c>
+      <c r="R6">
+        <v>929.014485361424</v>
+      </c>
+      <c r="S6">
+        <v>0.5697243590966072</v>
+      </c>
+      <c r="T6">
+        <v>0.5697243590966073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2.08294131002118</v>
-      </c>
-      <c r="N3">
-        <v>2.08294131002118</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>75.23588849260706</v>
-      </c>
-      <c r="R3">
-        <v>75.23588849260706</v>
-      </c>
-      <c r="S3">
-        <v>0.6739511230884204</v>
-      </c>
-      <c r="T3">
-        <v>0.6739511230884204</v>
+      <c r="G7">
+        <v>49.26691733333334</v>
+      </c>
+      <c r="H7">
+        <v>147.800752</v>
+      </c>
+      <c r="I7">
+        <v>0.6665842265227129</v>
+      </c>
+      <c r="J7">
+        <v>0.666584226522713</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.356208</v>
+      </c>
+      <c r="N7">
+        <v>1.068624</v>
+      </c>
+      <c r="O7">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="P7">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="Q7">
+        <v>17.549270089472</v>
+      </c>
+      <c r="R7">
+        <v>157.943430805248</v>
+      </c>
+      <c r="S7">
+        <v>0.09685986742610561</v>
+      </c>
+      <c r="T7">
+        <v>0.09685986742610563</v>
       </c>
     </row>
   </sheetData>
